--- a/data_excel/data_tables/excels/Y-邮件表.xlsx
+++ b/data_excel/data_tables/excels/Y-邮件表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统邮件表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="好友邮件表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t>今天是您注册游戏的第{sign_day}天，奉上礼包，祝您玩的愉快！</t>
+  </si>
+  <si>
+    <t>friend_email_id</t>
+  </si>
+  <si>
+    <t>好友邮件ID</t>
+  </si>
+  <si>
+    <t>好友金币赠送</t>
+  </si>
+  <si>
+    <t>{nickname}登录奖励</t>
+  </si>
+  <si>
+    <t>{nickname}好友赠送您{gold_num}金币。</t>
   </si>
 </sst>
 </file>
@@ -761,6 +776,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,8 +1037,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1108,14 +1130,92 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="59.125" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <f>86400*14</f>
+        <v>1209600</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
